--- a/modeloDoOrcamento.xlsx
+++ b/modeloDoOrcamento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\luzeforma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC2ABC7-9E8B-4005-9915-FC526DDA9AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E755F6F3-46B1-43C2-ADB4-623989847160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
@@ -437,35 +437,35 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -847,8 +847,8 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A3:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,7 +868,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -876,7 +876,7 @@
       <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -884,7 +884,7 @@
       <c r="A7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="20" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -895,7 +895,7 @@
       <c r="A8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="20" t="s">
         <v>42</v>
       </c>
     </row>
@@ -903,7 +903,7 @@
       <c r="A9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="20" t="s">
         <v>44</v>
       </c>
     </row>
@@ -911,22 +911,22 @@
       <c r="A10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
@@ -1225,62 +1225,62 @@
       <c r="A33" s="13"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="26"/>
+      <c r="B35" s="23"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="27"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="28"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="22"/>
+      <c r="B38" s="27"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="24"/>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="20"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="20"/>
+      <c r="D43" s="25"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="25"/>
+      <c r="D44" s="30"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
